--- a/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_07_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado07\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1067,6 +1067,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,33 +1134,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M54" sqref="M53:M54"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P52" sqref="P51:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,94 +1474,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="P1" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="90" t="s">
+      <c r="Q1" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="95" t="s">
+      <c r="R1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="90" t="s">
+      <c r="U1" s="76" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="75"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="91"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="77"/>
     </row>
     <row r="3" spans="1:21" s="31" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O47" s="42"/>
       <c r="P47" s="55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="45">
         <v>6</v>
@@ -4835,14 +4835,6 @@
   </sheetData>
   <autoFilter ref="A2:V47"/>
   <mergeCells count="20">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4855,6 +4847,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
@@ -569,9 +569,6 @@
     <t>Elaboración de un sismógrafo casero</t>
   </si>
   <si>
-    <t>La cualidades emergentes de los ecosistemas</t>
-  </si>
-  <si>
     <t>Recursos F</t>
   </si>
   <si>
@@ -747,6 +744,9 @@
   </si>
   <si>
     <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Las propiedades emergentes de los ecosistemas</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P52" sqref="P51:P52"/>
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
         <v>134</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" s="55">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K7" s="57" t="s">
         <v>20</v>
@@ -1749,13 +1749,13 @@
         <v>125</v>
       </c>
       <c r="S7" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="U7" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="T7" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="U7" s="60" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="54" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="H8" s="55">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K8" s="57" t="s">
         <v>20</v>
@@ -1811,7 +1811,7 @@
         <v>126</v>
       </c>
       <c r="T8" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U8" s="60" t="s">
         <v>127</v>
@@ -1924,13 +1924,13 @@
         <v>125</v>
       </c>
       <c r="S10" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="T10" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="U10" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="T10" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="U10" s="60" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="57" t="s">
         <v>20</v>
@@ -1984,7 +1984,7 @@
         <v>126</v>
       </c>
       <c r="T11" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" s="60" t="s">
         <v>127</v>
@@ -2043,7 +2043,7 @@
         <v>126</v>
       </c>
       <c r="T12" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U12" s="45" t="s">
         <v>127</v>
@@ -2065,7 +2065,7 @@
       <c r="E13" s="50"/>
       <c r="F13" s="53"/>
       <c r="G13" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H13" s="55">
         <v>7</v>
@@ -2074,7 +2074,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K13" s="57" t="s">
         <v>20</v>
@@ -2097,13 +2097,13 @@
         <v>125</v>
       </c>
       <c r="S13" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="T13" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="U13" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="T13" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="U13" s="60" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>141</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="55">
         <v>8</v>
@@ -2168,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K15" s="57" t="s">
         <v>20</v>
@@ -2194,7 +2194,7 @@
         <v>126</v>
       </c>
       <c r="T15" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U15" s="60" t="s">
         <v>127</v>
@@ -2365,7 +2365,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K20" s="57" t="s">
         <v>20</v>
@@ -2391,7 +2391,7 @@
         <v>126</v>
       </c>
       <c r="T20" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U20" s="60" t="s">
         <v>127</v>
@@ -2485,7 +2485,7 @@
         <v>149</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H23" s="55">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K23" s="57" t="s">
         <v>20</v>
@@ -2507,7 +2507,7 @@
         <v>34</v>
       </c>
       <c r="O23" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P23" s="55" t="s">
         <v>19</v>
@@ -2522,7 +2522,7 @@
         <v>126</v>
       </c>
       <c r="T23" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U23" s="60" t="s">
         <v>127</v>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H25" s="55">
         <v>11</v>
@@ -2590,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K25" s="57" t="s">
         <v>20</v>
@@ -2616,7 +2616,7 @@
         <v>126</v>
       </c>
       <c r="T25" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U25" s="60" t="s">
         <v>127</v>
@@ -2675,7 +2675,7 @@
         <v>126</v>
       </c>
       <c r="T26" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U26" s="45" t="s">
         <v>127</v>
@@ -2697,7 +2697,7 @@
       <c r="E27" s="73"/>
       <c r="F27" s="53"/>
       <c r="G27" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H27" s="55">
         <v>13</v>
@@ -2706,7 +2706,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K27" s="57" t="s">
         <v>20</v>
@@ -2729,13 +2729,13 @@
         <v>125</v>
       </c>
       <c r="S27" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="T27" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="U27" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="T27" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="U27" s="60" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K30" s="57" t="s">
         <v>20</v>
@@ -2861,7 +2861,7 @@
         <v>126</v>
       </c>
       <c r="T30" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U30" s="60" t="s">
         <v>127</v>
@@ -2887,7 +2887,7 @@
         <v>157</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H31" s="55">
         <v>15</v>
@@ -2896,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K31" s="57" t="s">
         <v>20</v>
@@ -2922,7 +2922,7 @@
         <v>126</v>
       </c>
       <c r="T31" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U31" s="60" t="s">
         <v>127</v>
@@ -3086,7 +3086,7 @@
         <v>161</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H36" s="55">
         <v>16</v>
@@ -3121,7 +3121,7 @@
         <v>126</v>
       </c>
       <c r="T36" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U36" s="60" t="s">
         <v>127</v>
@@ -3180,7 +3180,7 @@
         <v>163</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="55">
         <v>17</v>
@@ -3189,7 +3189,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K38" s="57" t="s">
         <v>19</v>
@@ -3202,25 +3202,25 @@
       </c>
       <c r="N38" s="59"/>
       <c r="O38" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P38" s="55" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="R38" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="R38" s="61" t="s">
-        <v>193</v>
-      </c>
       <c r="S38" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="U38" s="60" t="s">
         <v>209</v>
-      </c>
-      <c r="T38" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="U38" s="60" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K39" s="57" t="s">
         <v>20</v>
@@ -3265,7 +3265,7 @@
         <v>34</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P39" s="55" t="s">
         <v>19</v>
@@ -3280,7 +3280,7 @@
         <v>126</v>
       </c>
       <c r="T39" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U39" s="60" t="s">
         <v>127</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H40" s="55">
         <v>19</v>
@@ -3314,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K40" s="57" t="s">
         <v>20</v>
@@ -3340,7 +3340,7 @@
         <v>126</v>
       </c>
       <c r="T40" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U40" s="60" t="s">
         <v>127</v>
@@ -3399,7 +3399,7 @@
         <v>126</v>
       </c>
       <c r="T41" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U41" s="45" t="s">
         <v>127</v>
@@ -3430,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K42" s="57" t="s">
         <v>20</v>
@@ -3453,13 +3453,13 @@
         <v>125</v>
       </c>
       <c r="S42" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="T42" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="U42" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="T42" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="U42" s="60" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:22" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
       <c r="E43" s="50"/>
       <c r="F43" s="53"/>
       <c r="G43" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H43" s="55">
         <v>22</v>
@@ -3487,7 +3487,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K43" s="57" t="s">
         <v>20</v>
@@ -3500,7 +3500,7 @@
         <v>121</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P43" s="55" t="s">
         <v>20</v>
@@ -3515,7 +3515,7 @@
         <v>126</v>
       </c>
       <c r="T43" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U43" s="60" t="s">
         <v>127</v>
@@ -3546,7 +3546,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K44" s="57" t="s">
         <v>20</v>
@@ -3572,7 +3572,7 @@
         <v>126</v>
       </c>
       <c r="T44" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U44" s="60" t="s">
         <v>127</v>
@@ -3603,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K45" s="57" t="s">
         <v>20</v>
@@ -3674,7 +3674,7 @@
         <v>126</v>
       </c>
       <c r="T46" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U46" s="45" t="s">
         <v>127</v>

--- a/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado07\guion08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_07_08_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -812,7 +812,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,6 +885,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -942,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1067,33 +1073,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,6 +1115,34 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1443,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,94 +1481,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="S1" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="U1" s="90" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="84"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="77"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" s="31" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -2465,7 +2472,7 @@
       <c r="T22" s="62"/>
       <c r="U22" s="60"/>
     </row>
-    <row r="23" spans="1:21" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>122</v>
       </c>
@@ -2493,7 +2500,7 @@
       <c r="I23" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="56" t="s">
+      <c r="J23" s="97" t="s">
         <v>235</v>
       </c>
       <c r="K23" s="57" t="s">
@@ -3251,7 +3258,7 @@
       <c r="I39" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="56" t="s">
+      <c r="J39" s="97" t="s">
         <v>204</v>
       </c>
       <c r="K39" s="57" t="s">
@@ -3719,7 +3726,7 @@
       </c>
       <c r="O47" s="42"/>
       <c r="P47" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="45">
         <v>6</v>
@@ -4835,6 +4842,14 @@
   </sheetData>
   <autoFilter ref="A2:V47"/>
   <mergeCells count="20">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4847,14 +4862,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_07_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado07\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1073,6 +1073,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,34 +1143,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,94 +1481,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="P1" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="90" t="s">
+      <c r="Q1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="95" t="s">
+      <c r="R1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="90" t="s">
+      <c r="U1" s="77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="75"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="91"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21" s="31" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -2500,7 +2500,7 @@
       <c r="I23" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="74" t="s">
         <v>235</v>
       </c>
       <c r="K23" s="57" t="s">
@@ -3258,7 +3258,7 @@
       <c r="I39" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="97" t="s">
+      <c r="J39" s="74" t="s">
         <v>204</v>
       </c>
       <c r="K39" s="57" t="s">
@@ -4842,14 +4842,6 @@
   </sheetData>
   <autoFilter ref="A2:V47"/>
   <mergeCells count="20">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4862,6 +4854,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado07\guion08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9135"/>
   </bookViews>
@@ -1074,33 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,6 +1109,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,7 +1234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1450,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K47"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,94 +1476,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="P1" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="S1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="85"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="78"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:21" s="31" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -4842,6 +4837,14 @@
   </sheetData>
   <autoFilter ref="A2:V47"/>
   <mergeCells count="20">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4854,14 +4857,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion08/Escaleta CN_07_08_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_07_08_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9135"/>
   </bookViews>
@@ -1068,7 +1073,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,6 +1142,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1199,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1234,7 +1239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1445,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,94 +1481,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="96" t="s">
+      <c r="R1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="91" t="s">
+      <c r="S1" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="91" t="s">
+      <c r="U1" s="90" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="92"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" s="31" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -2495,7 +2500,7 @@
       <c r="I23" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="97" t="s">
         <v>235</v>
       </c>
       <c r="K23" s="57" t="s">
@@ -3253,7 +3258,7 @@
       <c r="I39" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="74" t="s">
+      <c r="J39" s="97" t="s">
         <v>204</v>
       </c>
       <c r="K39" s="57" t="s">
